--- a/Docs/DesignContent/DataSpec/DataDictionary.xlsx
+++ b/Docs/DesignContent/DataSpec/DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="230">
   <si>
     <t>contact.docx</t>
   </si>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,19 +2221,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -2246,8 +2247,11 @@
       <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2260,8 +2264,11 @@
       <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -2274,8 +2281,11 @@
       <c r="D4" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2288,8 +2298,11 @@
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2302,59 +2315,80 @@
       <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>

--- a/Docs/DesignContent/DataSpec/DataDictionary.xlsx
+++ b/Docs/DesignContent/DataSpec/DataDictionary.xlsx
@@ -4,7 +4,8 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="6480" windowWidth="28830" windowHeight="6540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -13,6 +14,7 @@
     <sheet name="Group" sheetId="4" r:id="rId4"/>
     <sheet name="Sale" sheetId="5" r:id="rId5"/>
     <sheet name="Event" sheetId="6" r:id="rId6"/>
+    <sheet name="Category" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Entity!#REF!</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="239">
   <si>
     <t>contact.docx</t>
   </si>
@@ -712,6 +714,33 @@
   </si>
   <si>
     <t>MDSE</t>
+  </si>
+  <si>
+    <t>string BuyId</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Like New</t>
+  </si>
+  <si>
+    <t>Excelent</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Poor</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1093,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1254,6 +1284,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1435,11 +1466,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1450,10 +1482,11 @@
     <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -1479,10 +1512,13 @@
         <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1504,11 +1540,14 @@
       <c r="G3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -1530,11 +1569,14 @@
       <c r="G4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -1553,10 +1595,13 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -1575,10 +1620,13 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -1586,10 +1634,13 @@
         <v>98</v>
       </c>
       <c r="I7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
@@ -1597,10 +1648,13 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
@@ -1608,453 +1662,462 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G13" s="2" t="s">
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G14" s="2" t="s">
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G15" s="2" t="s">
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G16" s="2" t="s">
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G17" s="2" t="s">
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G18" s="2" t="s">
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" t="s">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" t="s">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" t="s">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" t="s">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" t="s">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I64" t="s">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" t="s">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" t="s">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" t="s">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" t="s">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" t="s">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" t="s">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" t="s">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" t="s">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" t="s">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" t="s">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" t="s">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" t="s">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" t="s">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" t="s">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" t="s">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" t="s">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" t="s">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" t="s">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" t="s">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" t="s">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" t="s">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" t="s">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G3:G18">
-    <sortCondition ref="G3:G18"/>
+  <sortState ref="G3:G20">
+    <sortCondition ref="G3:G20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2063,24 +2126,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2090,23 +2156,8 @@
       <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2116,23 +2167,8 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2142,23 +2178,8 @@
       <c r="C5" t="s">
         <v>124</v>
       </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2168,20 +2189,8 @@
       <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2223,8 +2232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2282,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>106</v>
@@ -2287,7 +2299,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
@@ -2304,7 +2316,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -2321,6 +2333,9 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2332,7 +2347,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>100</v>
@@ -2375,12 +2393,12 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2404,7 +2422,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="D3:D18">
+    <sortCondition ref="D3:D18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2415,6 +2437,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2472,4 +2495,123 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>